--- a/output/xlsx/RF007 - Gerenciar Avaliacoes--Complete-.xlsx
+++ b/output/xlsx/RF007 - Gerenciar Avaliacoes--Complete-.xlsx
@@ -95,7 +95,7 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona uma Avaliacao da listagem</t>
@@ -113,7 +113,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do Avaliacao</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes com o Avaliacao excluido</t>
+    <t>SYSTEM exibe a listagem das Avaliacoes com a Avaliacao nao excluida</t>
   </si>
   <si>
     <t>TC2</t>
@@ -122,7 +122,7 @@
     <t>Lider de Pessoas confirma a exclusao do Avaliacao</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Avaliacoes sem o Avaliacao excluido</t>
+    <t>SYSTEM exibe a listagem das Avaliacoes sem a Avaliacao excluida</t>
   </si>
   <si>
     <t>TC3</t>
@@ -143,10 +143,10 @@
     <t>Lider de Pessoas clica na opcao 'Editar' para modificar a Avaliacao selecionada</t>
   </si>
   <si>
-    <t>SYSTEM apresenta o formulario para e alteracao de Avaliacao</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas verifica que os campos 'Periodo Avaliativo', 'Perfil' e 'Avaliado' somente leitura</t>
+    <t>SYSTEM apresenta o formulario para e alteracao da Avaliacao</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas verifica que os campos 'Periodo Avaliativo', 'Perfil' e 'Avaliado' estao em modo somente leitura</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona 'Avaliadores' da Avaliacao</t>
@@ -209,7 +209,7 @@
     <t>Lider de Pessoas Em 'Metas', insere o 'Nivel' esperado para cada competencia do perfil selecionado na Avaliacao</t>
   </si>
   <si>
-    <t>SYSTEM apresenta em 'Metas' os campos 'Nivel' preenchido corretamente</t>
+    <t>SYSTEM apresenta em 'Metas' os campos 'Nivel' preenchidos corretamente</t>
   </si>
   <si>
     <t>TC9</t>
